--- a/data/case1/20/Qlm1_13.xlsx
+++ b/data/case1/20/Qlm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.077191089009374991</v>
+        <v>-0.14506580613478093</v>
       </c>
       <c r="B1" s="0">
-        <v>0.077170692425106324</v>
+        <v>0.14498677983044672</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.055065615261795209</v>
+        <v>-0.13464194998036572</v>
       </c>
       <c r="B2" s="0">
-        <v>0.055018342391237596</v>
+        <v>0.13435507665639168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0053181972843070469</v>
+        <v>-0.084652088605764675</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0051875388763207297</v>
+        <v>0.084474637856807533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0028124610948587758</v>
+        <v>-0.076474637904423659</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0031937951281211241</v>
+        <v>0.075947045498379495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.006193795116100631</v>
+        <v>-0.072947045523830134</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0074933252734865619</v>
+        <v>0.07114452309267616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0087744188112139909</v>
+        <v>-0.024260166790220694</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0092277769543880339</v>
+        <v>0.023820441661269953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.019227776918949946</v>
+        <v>-0.014728806993261845</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.019346020999420954</v>
+        <v>0.014624639725566269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.016715193549434293</v>
+        <v>-0.0046246397926661409</v>
       </c>
       <c r="B8" s="0">
-        <v>0.016660471069846139</v>
+        <v>0.0044434993410376045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.014660471078688619</v>
+        <v>-0.0024434993694124607</v>
       </c>
       <c r="B9" s="0">
-        <v>0.014623957674587906</v>
+        <v>0.0022969989683838676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.012623957684397169</v>
+        <v>-0.00029699899704382915</v>
       </c>
       <c r="B10" s="0">
-        <v>0.01262274025210175</v>
+        <v>0.000288188548399404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.009622740265323948</v>
+        <v>0.0027118114180026964</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0096210742448308295</v>
+        <v>-0.0027271454879187473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0061210742598731827</v>
+        <v>0.006227145451947802</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0061147123498743738</v>
+        <v>-0.006340913928725378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0026147123654913784</v>
+        <v>0.0098409138935249274</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0026144334665207936</v>
+        <v>-0.0098934578944067653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.001105347068593332</v>
+        <v>0.017893457837587334</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0011115149660820833</v>
+        <v>-0.017918040062753882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0021115149588197824</v>
+        <v>0.018918040041169704</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.002125242153071305</v>
+        <v>-0.018937692006016249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060329078002436809</v>
+        <v>-0.0060341884282912872</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034171127210101</v>
+        <v>0.0060034659909899979</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034171237763871</v>
+        <v>-0.00400346601700452</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999820725662</v>
+        <v>0.0039999999639555028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016105077183606653</v>
+        <v>-0.0043448298803134833</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091512700853627</v>
+        <v>0.00431007367116365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091512714597297</v>
+        <v>-0.00031007369158331244</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016888593696873</v>
+        <v>7.5708580593580876e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080168886085125735</v>
+        <v>0.0039242913987447281</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056598294433456</v>
+        <v>-0.0039807140451983969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005659844422027</v>
+        <v>-0.0040056864334800935</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999848676637</v>
+        <v>0.0039999999792286189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045700145122124169</v>
+        <v>-0.045702988076255835</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490257978960003</v>
+        <v>0.045492374363776733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490257998691881</v>
+        <v>-0.040492374395949327</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097326297035885</v>
+        <v>0.040097710870688807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097326369454827</v>
+        <v>-0.020097710979539052</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999926539225</v>
+        <v>0.019999999889711795</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.00071890645368632988</v>
+        <v>-0.04488435632886123</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.00073899710658587026</v>
+        <v>0.044832677165343782</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0032389970963215831</v>
+        <v>-0.042332677194904633</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0032620442677444572</v>
+        <v>0.04226944840971214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0057620442575205821</v>
+        <v>-0.039769448440234889</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0058832089749301097</v>
+        <v>0.039415978840048105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0078832089666462934</v>
+        <v>-0.057725300274372948</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0079527640113683518</v>
+        <v>0.057300468947713235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.014952763986572748</v>
+        <v>-0.050300469008615956</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0149677623019846</v>
+        <v>0.050186413268680674</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.01071898013757</v>
+        <v>0.0098135864082360413</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.01088484969211212</v>
+        <v>-0.0099431114459616055</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022466329745242</v>
+        <v>-0.014022950871735773</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001419598283604</v>
+        <v>0.014001302050660414</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040014196323845397</v>
+        <v>-0.004001302127990769</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999860125257</v>
+        <v>0.0039999999520095031</v>
       </c>
     </row>
   </sheetData>
